--- a/input_xlsx/RS_2018-12-08.xlsx
+++ b/input_xlsx/RS_2018-12-08.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TAMBORA MUDA\PENULISAN MANUSCRIPT\Biodivers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tambora\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -2243,7 +2243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="233">
   <si>
     <t>parentEventID</t>
   </si>
@@ -2441,6 +2441,12 @@
   </si>
   <si>
     <t>USU-2017RS-RS007-ST003</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>”</t>
   </si>
   <si>
     <t>occurrenceID</t>
@@ -2538,9 +2544,6 @@
     <t>Caulerpa taxifolia</t>
   </si>
   <si>
-    <t>absent</t>
-  </si>
-  <si>
     <t>USU-2017NZ-RS005-ST001-MA005</t>
   </si>
   <si>
@@ -2553,69 +2556,36 @@
     <t>Dictyota ciliolate</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA007</t>
-  </si>
-  <si>
     <t>Padina minor</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA008</t>
-  </si>
-  <si>
     <t>Colpomenia sinuosa</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA009</t>
-  </si>
-  <si>
     <t>Sargassum cristaefolium</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA010</t>
-  </si>
-  <si>
     <t>Turbinaria conoides</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA011</t>
-  </si>
-  <si>
     <t>Amphiroa ephedraea</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA012</t>
-  </si>
-  <si>
     <t>Amphiroa fragillisima</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA013</t>
-  </si>
-  <si>
     <t>Gelidiella acerosa</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA014</t>
-  </si>
-  <si>
     <t>Hypnea choroides</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA015</t>
-  </si>
-  <si>
     <t>Eucheuma arnoldii</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA016</t>
-  </si>
-  <si>
     <t>Gracillaria canaliculata</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST001-MA017</t>
-  </si>
-  <si>
     <t>Gracillaria salicornia</t>
   </si>
   <si>
@@ -2661,15 +2631,6 @@
     <t>USU-2017NZ-RS005-ST002-MA014</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST002-MA015</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST002-MA016</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST002-MA017</t>
-  </si>
-  <si>
     <t>USU-2017NZ-RS005-ST003-MA001</t>
   </si>
   <si>
@@ -2688,39 +2649,6 @@
     <t>USU-2017NZ-RS005-ST003-MA006</t>
   </si>
   <si>
-    <t>USU-2017NZ-RS005-ST003-MA007</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA008</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA009</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA010</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA011</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA012</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA013</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA014</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA015</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA016</t>
-  </si>
-  <si>
-    <t>USU-2017NZ-RS005-ST003-MA017</t>
-  </si>
-  <si>
     <t>USU-2017VP-RS006-ST001-FN001</t>
   </si>
   <si>
@@ -2790,57 +2718,30 @@
     <t>Ischnura</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN011</t>
-  </si>
-  <si>
     <t>Epitheca</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN012</t>
-  </si>
-  <si>
     <t>Progomphus</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN013</t>
-  </si>
-  <si>
     <t>Libellula</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN014</t>
-  </si>
-  <si>
     <t>Sweltsa</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN015</t>
-  </si>
-  <si>
     <t>Brachycentrus</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN016</t>
-  </si>
-  <si>
     <t>Chimarra</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN017</t>
-  </si>
-  <si>
     <t>Melanoides</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN018</t>
-  </si>
-  <si>
     <t>Goniobasis</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST001-FN019</t>
-  </si>
-  <si>
     <t>Tryonia</t>
   </si>
   <si>
@@ -2880,27 +2781,6 @@
     <t>USU-2017VP-RS006-ST002-FN012</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST002-FN013</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST002-FN014</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST002-FN015</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST002-FN016</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST002-FN017</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST002-FN018</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST002-FN019</t>
-  </si>
-  <si>
     <t>USU-2017VP-RS006-ST003-FN001</t>
   </si>
   <si>
@@ -2928,36 +2808,6 @@
     <t>USU-2017VP-RS006-ST003-FN009</t>
   </si>
   <si>
-    <t>USU-2017VP-RS006-ST003-FN010</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN011</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN012</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN013</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN014</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN015</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN016</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN017</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN018</t>
-  </si>
-  <si>
-    <t>USU-2017VP-RS006-ST003-FN019</t>
-  </si>
-  <si>
     <t>USU-2017RS-RS007-ST001-VE001</t>
   </si>
   <si>
@@ -3028,9 +2878,6 @@
   </si>
   <si>
     <t>USU-2017RS-RS007-ST003-VE005</t>
-  </si>
-  <si>
-    <t>USU-2017RS-RS007-ST003-VE006</t>
   </si>
   <si>
     <t>identifier</t>
@@ -3120,8 +2967,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3183,6 +3030,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -3326,9 +3185,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3353,6 +3212,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3693,11 +3554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD232"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4282,6 +4143,45 @@
         <v>61</v>
       </c>
     </row>
+    <row r="17" spans="11:11" ht="18.75">
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="11:11" ht="18.75">
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" ht="18.75">
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" ht="18.75">
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="11:11" ht="18.75">
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11" ht="18.75">
+      <c r="K27" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4291,10 +4191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Q131" sqref="Q131"/>
+    <sheetView topLeftCell="L1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4324,25 +4224,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -4357,19 +4257,19 @@
         <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>19</v>
@@ -4380,22 +4280,22 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" s="15">
         <v>1.4162555999999999</v>
@@ -4413,13 +4313,13 @@
         <v>17.2</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18">
@@ -4427,22 +4327,22 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3" s="15">
         <v>1.4162555999999999</v>
@@ -4460,13 +4360,13 @@
         <v>58.8</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18">
@@ -4474,22 +4374,22 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I4" s="15">
         <v>1.4162555999999999</v>
@@ -4507,13 +4407,13 @@
         <v>1.6</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18">
@@ -4521,22 +4421,22 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I5" s="15">
         <v>1.4162555999999999</v>
@@ -4550,14 +4450,17 @@
       <c r="L5" t="s">
         <v>28</v>
       </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
       <c r="O5" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18">
@@ -4565,22 +4468,22 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6" s="15">
         <v>1.4162555999999999</v>
@@ -4594,14 +4497,17 @@
       <c r="L6" t="s">
         <v>28</v>
       </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
       <c r="O6" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18">
@@ -4609,22 +4515,22 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I7" s="15">
         <v>1.4162555999999999</v>
@@ -4638,43 +4544,46 @@
       <c r="L7" t="s">
         <v>28</v>
       </c>
+      <c r="N7">
+        <v>3.3</v>
+      </c>
       <c r="O7" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I8" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J8" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -4683,45 +4592,45 @@
         <v>28</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I9" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J9" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
@@ -4729,43 +4638,46 @@
       <c r="L9" t="s">
         <v>28</v>
       </c>
+      <c r="N9">
+        <v>0.2</v>
+      </c>
       <c r="O9" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J10" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -4773,43 +4685,46 @@
       <c r="L10" t="s">
         <v>28</v>
       </c>
+      <c r="N10">
+        <v>1.3</v>
+      </c>
       <c r="O10" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I11" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J11" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
@@ -4817,43 +4732,46 @@
       <c r="L11" t="s">
         <v>28</v>
       </c>
+      <c r="N11">
+        <v>3.2</v>
+      </c>
       <c r="O11" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
+        <v>81</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I12" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J12" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K12" t="s">
         <v>27</v>
@@ -4861,43 +4779,46 @@
       <c r="L12" t="s">
         <v>28</v>
       </c>
+      <c r="N12">
+        <v>0.6</v>
+      </c>
       <c r="O12" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I13" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J13" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K13" t="s">
         <v>27</v>
@@ -4905,43 +4826,46 @@
       <c r="L13" t="s">
         <v>28</v>
       </c>
+      <c r="N13">
+        <v>2.6</v>
+      </c>
       <c r="O13" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J14" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -4949,43 +4873,46 @@
       <c r="L14" t="s">
         <v>28</v>
       </c>
+      <c r="N14">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="O14" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I15" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J15" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K15" t="s">
         <v>27</v>
@@ -4994,45 +4921,45 @@
         <v>28</v>
       </c>
       <c r="N15">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I16" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J16" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K16" t="s">
         <v>27</v>
@@ -5040,43 +4967,46 @@
       <c r="L16" t="s">
         <v>28</v>
       </c>
+      <c r="N16">
+        <v>1.6</v>
+      </c>
       <c r="O16" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I17" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J17" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K17" t="s">
         <v>27</v>
@@ -5084,43 +5014,46 @@
       <c r="L17" t="s">
         <v>28</v>
       </c>
+      <c r="N17">
+        <v>1.2</v>
+      </c>
       <c r="O17" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>117</v>
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I18" s="15">
-        <v>1.4162555999999999</v>
+        <v>1.3991194</v>
       </c>
       <c r="J18" s="15">
-        <v>97.067730600000004</v>
+        <v>97.111277799999996</v>
       </c>
       <c r="K18" t="s">
         <v>27</v>
@@ -5129,16 +5062,16 @@
         <v>28</v>
       </c>
       <c r="N18">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18">
@@ -5146,22 +5079,22 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I19" s="15">
         <v>1.3991194</v>
@@ -5175,14 +5108,17 @@
       <c r="L19" t="s">
         <v>28</v>
       </c>
+      <c r="N19">
+        <v>0.68</v>
+      </c>
       <c r="O19" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18">
@@ -5190,22 +5126,22 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I20" s="15">
         <v>1.3991194</v>
@@ -5220,16 +5156,16 @@
         <v>28</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18">
@@ -5237,22 +5173,22 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I21" s="15">
         <v>1.3991194</v>
@@ -5267,45 +5203,45 @@
         <v>28</v>
       </c>
       <c r="N21">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I22" s="15">
-        <v>1.3991194</v>
+        <v>1.4158360999999999</v>
       </c>
       <c r="J22" s="15">
-        <v>97.111277799999996</v>
+        <v>97.064055600000003</v>
       </c>
       <c r="K22" t="s">
         <v>27</v>
@@ -5314,45 +5250,45 @@
         <v>28</v>
       </c>
       <c r="N22">
-        <v>1.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I23" s="15">
-        <v>1.3991194</v>
+        <v>1.4158360999999999</v>
       </c>
       <c r="J23" s="15">
-        <v>97.111277799999996</v>
+        <v>97.064055600000003</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -5361,45 +5297,45 @@
         <v>28</v>
       </c>
       <c r="N23">
-        <v>3.2</v>
+        <v>82.6</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="18">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I24" s="15">
-        <v>1.3991194</v>
+        <v>1.4158360999999999</v>
       </c>
       <c r="J24" s="15">
-        <v>97.111277799999996</v>
+        <v>97.064055600000003</v>
       </c>
       <c r="K24" t="s">
         <v>27</v>
@@ -5408,45 +5344,45 @@
         <v>28</v>
       </c>
       <c r="N24">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I25" s="15">
-        <v>1.3991194</v>
+        <v>1.4158360999999999</v>
       </c>
       <c r="J25" s="15">
-        <v>97.111277799999996</v>
+        <v>97.064055600000003</v>
       </c>
       <c r="K25" t="s">
         <v>27</v>
@@ -5455,45 +5391,45 @@
         <v>28</v>
       </c>
       <c r="N25">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I26" s="15">
-        <v>1.3991194</v>
+        <v>1.4158360999999999</v>
       </c>
       <c r="J26" s="15">
-        <v>97.111277799999996</v>
+        <v>97.064055600000003</v>
       </c>
       <c r="K26" t="s">
         <v>27</v>
@@ -5502,45 +5438,45 @@
         <v>28</v>
       </c>
       <c r="N26">
-        <v>4.4000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I27" s="15">
-        <v>1.3991194</v>
+        <v>1.4158360999999999</v>
       </c>
       <c r="J27" s="15">
-        <v>97.111277799999996</v>
+        <v>97.064055600000003</v>
       </c>
       <c r="K27" t="s">
         <v>27</v>
@@ -5549,509 +5485,515 @@
         <v>28</v>
       </c>
       <c r="N27">
+        <v>5.3</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18">
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J28">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28">
         <v>3.7</v>
       </c>
-      <c r="O27" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q27" s="17" t="s">
+      <c r="O28" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="18">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J28" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28">
-        <v>1.6</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="P28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18">
+      <c r="A29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J29">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>14.81</v>
+      </c>
+      <c r="O29" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="18">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J29" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29">
-        <v>1.2</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="P29" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18">
+      <c r="A30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J30">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>11.11</v>
+      </c>
+      <c r="O30" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="18">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="P30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18">
+      <c r="A31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
         <v>129</v>
       </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J30" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30">
-        <v>2.7</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P30" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="17" t="s">
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J31">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>18.52</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="18">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J31" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31">
-        <v>0.68</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="P31" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18">
+      <c r="A32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J32">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>12.96</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="18">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="18">
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J32" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P32" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="17" t="s">
+      <c r="I33">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J33">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>12.96</v>
+      </c>
+      <c r="O33" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="18">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="P33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q33" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J33" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33">
-        <v>1.2</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q33" s="17" t="s">
+    </row>
+    <row r="34" spans="1:17" ht="18">
+      <c r="A34" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J34">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>7.41</v>
+      </c>
+      <c r="O34" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="18">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J34" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" t="s">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>0.7</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="P34" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q34" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18">
+      <c r="A35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J35">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>20.37</v>
+      </c>
+      <c r="O35" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="18">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="15">
-        <v>1.3991194</v>
-      </c>
-      <c r="J35" s="15">
-        <v>97.111277799999996</v>
-      </c>
-      <c r="K35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="P35" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18">
+      <c r="A36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J36">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>7.41</v>
+      </c>
+      <c r="O36" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="18">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="P36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="18">
+      <c r="A37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="G36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J36" s="15">
-        <v>97.064055600000003</v>
-      </c>
-      <c r="K36" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P36" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q36" s="17" t="s">
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37">
+        <v>2.9178888999999999</v>
+      </c>
+      <c r="J37">
+        <v>98.928805600000004</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>46.3</v>
+      </c>
+      <c r="O37" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="18">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J37" s="15">
-        <v>97.064055600000003</v>
-      </c>
-      <c r="K37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37">
-        <v>82.6</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="P37" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="18">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J38" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I38">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J38">
+        <v>98.934166700000006</v>
       </c>
       <c r="K38" t="s">
         <v>27</v>
@@ -6059,43 +6001,46 @@
       <c r="L38" t="s">
         <v>28</v>
       </c>
+      <c r="N38">
+        <v>9.26</v>
+      </c>
       <c r="O38" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P38" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J39" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I39">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J39">
+        <v>98.934166700000006</v>
       </c>
       <c r="K39" t="s">
         <v>27</v>
@@ -6103,43 +6048,46 @@
       <c r="L39" t="s">
         <v>28</v>
       </c>
+      <c r="N39">
+        <v>7.41</v>
+      </c>
       <c r="O39" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J40" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I40">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J40">
+        <v>98.934166700000006</v>
       </c>
       <c r="K40" t="s">
         <v>27</v>
@@ -6147,43 +6095,46 @@
       <c r="L40" t="s">
         <v>28</v>
       </c>
+      <c r="N40">
+        <v>12.96</v>
+      </c>
       <c r="O40" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="18">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="G41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J41" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I41">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J41">
+        <v>98.934166700000006</v>
       </c>
       <c r="K41" t="s">
         <v>27</v>
@@ -6191,43 +6142,46 @@
       <c r="L41" t="s">
         <v>28</v>
       </c>
+      <c r="N41">
+        <v>9.26</v>
+      </c>
       <c r="O41" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="18">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J42" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I42">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J42">
+        <v>98.934166700000006</v>
       </c>
       <c r="K42" t="s">
         <v>27</v>
@@ -6236,45 +6190,45 @@
         <v>28</v>
       </c>
       <c r="N42">
-        <v>6.8</v>
+        <v>7.41</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="18">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J43" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I43">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J43">
+        <v>98.934166700000006</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
@@ -6282,43 +6236,46 @@
       <c r="L43" t="s">
         <v>28</v>
       </c>
+      <c r="N43">
+        <v>5.56</v>
+      </c>
       <c r="O43" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P43" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="18">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J44" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I44">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J44">
+        <v>98.934166700000006</v>
       </c>
       <c r="K44" t="s">
         <v>27</v>
@@ -6326,43 +6283,46 @@
       <c r="L44" t="s">
         <v>28</v>
       </c>
+      <c r="N44">
+        <v>7.41</v>
+      </c>
       <c r="O44" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
-      </c>
-      <c r="I45" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J45" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I45">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J45">
+        <v>98.934166700000006</v>
       </c>
       <c r="K45" t="s">
         <v>27</v>
@@ -6371,45 +6331,45 @@
         <v>28</v>
       </c>
       <c r="N45">
-        <v>5.5</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q45" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="18">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
-      </c>
-      <c r="I46" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J46" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I46">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J46">
+        <v>98.934166700000006</v>
       </c>
       <c r="K46" t="s">
         <v>27</v>
@@ -6417,43 +6377,46 @@
       <c r="L46" t="s">
         <v>28</v>
       </c>
+      <c r="N46">
+        <v>20.37</v>
+      </c>
       <c r="O46" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="18">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J47" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I47">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J47">
+        <v>98.934166700000006</v>
       </c>
       <c r="K47" t="s">
         <v>27</v>
@@ -6461,43 +6424,46 @@
       <c r="L47" t="s">
         <v>28</v>
       </c>
+      <c r="N47">
+        <v>12.96</v>
+      </c>
       <c r="O47" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q47" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q47" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="18">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J48" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I48">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J48">
+        <v>98.934166700000006</v>
       </c>
       <c r="K48" t="s">
         <v>27</v>
@@ -6505,43 +6471,46 @@
       <c r="L48" t="s">
         <v>28</v>
       </c>
+      <c r="N48">
+        <v>7.41</v>
+      </c>
       <c r="O48" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q48" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q48" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="18">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J49" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I49">
+        <v>2.9191110999999998</v>
+      </c>
+      <c r="J49">
+        <v>98.934166700000006</v>
       </c>
       <c r="K49" t="s">
         <v>27</v>
@@ -6550,45 +6519,45 @@
         <v>28</v>
       </c>
       <c r="N49">
-        <v>1.9</v>
+        <v>7.41</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="18">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
-      </c>
-      <c r="I50" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J50" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I50">
+        <v>2.9201389</v>
+      </c>
+      <c r="J50">
+        <v>98.9375</v>
       </c>
       <c r="K50" t="s">
         <v>27</v>
@@ -6596,43 +6565,46 @@
       <c r="L50" t="s">
         <v>28</v>
       </c>
+      <c r="N50">
+        <v>9.26</v>
+      </c>
       <c r="O50" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q50" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="18">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J51" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I51">
+        <v>2.9201389</v>
+      </c>
+      <c r="J51">
+        <v>98.9375</v>
       </c>
       <c r="K51" t="s">
         <v>27</v>
@@ -6640,43 +6612,46 @@
       <c r="L51" t="s">
         <v>28</v>
       </c>
+      <c r="N51">
+        <v>11.11</v>
+      </c>
       <c r="O51" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P51" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q51" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="18">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="15">
-        <v>1.4158360999999999</v>
-      </c>
-      <c r="J52" s="15">
-        <v>97.064055600000003</v>
+        <v>131</v>
+      </c>
+      <c r="I52">
+        <v>2.9201389</v>
+      </c>
+      <c r="J52">
+        <v>98.9375</v>
       </c>
       <c r="K52" t="s">
         <v>27</v>
@@ -6685,45 +6660,45 @@
         <v>28</v>
       </c>
       <c r="N52">
-        <v>5.3</v>
+        <v>14.81</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q52" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Q52" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="18">
-      <c r="A53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>152</v>
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I53">
-        <v>2.9178888999999999</v>
+        <v>2.9201389</v>
       </c>
       <c r="J53">
-        <v>98.928805600000004</v>
+        <v>98.9375</v>
       </c>
       <c r="K53" t="s">
         <v>27</v>
@@ -6731,43 +6706,46 @@
       <c r="L53" t="s">
         <v>28</v>
       </c>
+      <c r="N53">
+        <v>3.7</v>
+      </c>
       <c r="O53" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="18">
-      <c r="A54" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>157</v>
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G54" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I54">
-        <v>2.9178888999999999</v>
+        <v>2.9201389</v>
       </c>
       <c r="J54">
-        <v>98.928805600000004</v>
+        <v>98.9375</v>
       </c>
       <c r="K54" t="s">
         <v>27</v>
@@ -6775,43 +6753,46 @@
       <c r="L54" t="s">
         <v>28</v>
       </c>
+      <c r="N54">
+        <v>12.96</v>
+      </c>
       <c r="O54" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="18">
-      <c r="A55" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>159</v>
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I55">
-        <v>2.9178888999999999</v>
+        <v>2.9201389</v>
       </c>
       <c r="J55">
-        <v>98.928805600000004</v>
+        <v>98.9375</v>
       </c>
       <c r="K55" t="s">
         <v>27</v>
@@ -6820,45 +6801,45 @@
         <v>28</v>
       </c>
       <c r="N55">
-        <v>3.7</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="18">
-      <c r="A56" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>161</v>
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I56">
-        <v>2.9178888999999999</v>
+        <v>2.9201389</v>
       </c>
       <c r="J56">
-        <v>98.928805600000004</v>
+        <v>98.9375</v>
       </c>
       <c r="K56" t="s">
         <v>27</v>
@@ -6866,43 +6847,46 @@
       <c r="L56" t="s">
         <v>28</v>
       </c>
+      <c r="N56">
+        <v>14.81</v>
+      </c>
       <c r="O56" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="18">
-      <c r="A57" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>163</v>
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I57">
-        <v>2.9178888999999999</v>
+        <v>2.9201389</v>
       </c>
       <c r="J57">
-        <v>98.928805600000004</v>
+        <v>98.9375</v>
       </c>
       <c r="K57" t="s">
         <v>27</v>
@@ -6911,45 +6895,45 @@
         <v>28</v>
       </c>
       <c r="N57">
-        <v>14.81</v>
+        <v>22.22</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="18">
-      <c r="A58" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>165</v>
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
         <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G58" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I58">
-        <v>2.9178888999999999</v>
+        <v>2.9201389</v>
       </c>
       <c r="J58">
-        <v>98.928805600000004</v>
+        <v>98.9375</v>
       </c>
       <c r="K58" t="s">
         <v>27</v>
@@ -6958,45 +6942,45 @@
         <v>28</v>
       </c>
       <c r="N58">
-        <v>11.11</v>
+        <v>37.04</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P58" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="18">
+      <c r="A59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" t="s">
         <v>83</v>
       </c>
-      <c r="Q58" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="18">
-      <c r="A59" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" t="s">
-        <v>155</v>
-      </c>
       <c r="I59">
-        <v>2.9178888999999999</v>
+        <v>2.7688527999999999</v>
       </c>
       <c r="J59">
-        <v>98.928805600000004</v>
+        <v>99.125763899999995</v>
       </c>
       <c r="K59" t="s">
         <v>27</v>
@@ -7004,43 +6988,46 @@
       <c r="L59" t="s">
         <v>28</v>
       </c>
+      <c r="N59">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="O59" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q59" s="18" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="18">
-      <c r="A60" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>169</v>
+      <c r="A60" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G60" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="I60">
-        <v>2.9178888999999999</v>
+        <v>2.7688527999999999</v>
       </c>
       <c r="J60">
-        <v>98.928805600000004</v>
+        <v>99.125763899999995</v>
       </c>
       <c r="K60" t="s">
         <v>27</v>
@@ -7049,45 +7036,45 @@
         <v>28</v>
       </c>
       <c r="N60">
-        <v>18.52</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P60" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="18">
+      <c r="A61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61" t="s">
         <v>83</v>
       </c>
-      <c r="Q60" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="18">
-      <c r="A61" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G61" t="s">
-        <v>155</v>
-      </c>
       <c r="I61">
-        <v>2.9178888999999999</v>
+        <v>2.7688527999999999</v>
       </c>
       <c r="J61">
-        <v>98.928805600000004</v>
+        <v>99.125763899999995</v>
       </c>
       <c r="K61" t="s">
         <v>27</v>
@@ -7095,43 +7082,46 @@
       <c r="L61" t="s">
         <v>28</v>
       </c>
+      <c r="N61">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="O61" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q61" s="18" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="18">
-      <c r="A62" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>173</v>
+      <c r="A62" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" t="s">
-        <v>174</v>
+        <v>129</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="I62">
-        <v>2.9178888999999999</v>
+        <v>2.7688527999999999</v>
       </c>
       <c r="J62">
-        <v>98.928805600000004</v>
+        <v>99.125763899999995</v>
       </c>
       <c r="K62" t="s">
         <v>27</v>
@@ -7139,43 +7129,46 @@
       <c r="L62" t="s">
         <v>28</v>
       </c>
+      <c r="N62">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="O62" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P62" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q62" s="18" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="18">
-      <c r="A63" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>175</v>
+      <c r="A63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" t="s">
-        <v>176</v>
+        <v>129</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="I63">
-        <v>2.9178888999999999</v>
+        <v>2.7688527999999999</v>
       </c>
       <c r="J63">
-        <v>98.928805600000004</v>
+        <v>99.125763899999995</v>
       </c>
       <c r="K63" t="s">
         <v>27</v>
@@ -7184,45 +7177,45 @@
         <v>28</v>
       </c>
       <c r="N63">
-        <v>12.96</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="18">
+      <c r="A64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64" t="s">
         <v>83</v>
       </c>
-      <c r="Q63" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="18">
-      <c r="A64" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" t="s">
-        <v>153</v>
-      </c>
-      <c r="F64" t="s">
-        <v>178</v>
-      </c>
-      <c r="G64" t="s">
-        <v>155</v>
-      </c>
       <c r="I64">
-        <v>2.9178888999999999</v>
+        <v>2.7688527999999999</v>
       </c>
       <c r="J64">
-        <v>98.928805600000004</v>
+        <v>99.125763899999995</v>
       </c>
       <c r="K64" t="s">
         <v>27</v>
@@ -7231,45 +7224,45 @@
         <v>28</v>
       </c>
       <c r="N64">
-        <v>12.96</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P64" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="18">
+      <c r="A65" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" t="s">
         <v>83</v>
       </c>
-      <c r="Q64" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="18">
-      <c r="A65" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" t="s">
-        <v>155</v>
-      </c>
       <c r="I65">
-        <v>2.9178888999999999</v>
+        <v>2.7703000000000002</v>
       </c>
       <c r="J65">
-        <v>98.928805600000004</v>
+        <v>99.127491699999993</v>
       </c>
       <c r="K65" t="s">
         <v>27</v>
@@ -7278,456 +7271,468 @@
         <v>28</v>
       </c>
       <c r="N65">
-        <v>7.41</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P65" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="18">
+      <c r="A66" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" t="s">
         <v>83</v>
       </c>
-      <c r="Q65" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="18">
-      <c r="A66" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" t="s">
-        <v>153</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="I66">
+        <v>2.7703000000000002</v>
+      </c>
+      <c r="J66">
+        <v>99.127491699999993</v>
+      </c>
+      <c r="K66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O66" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q66" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="18">
+      <c r="A67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67">
+        <v>2.7703000000000002</v>
+      </c>
+      <c r="J67">
+        <v>99.127491699999993</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O67" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="18">
+      <c r="A68" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68">
+        <v>2.7703000000000002</v>
+      </c>
+      <c r="J68">
+        <v>99.127491699999993</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="18">
+      <c r="A69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69">
+        <v>2.7703000000000002</v>
+      </c>
+      <c r="J69">
+        <v>99.127491699999993</v>
+      </c>
+      <c r="K69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P69" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q69" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="18">
+      <c r="A70" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" t="s">
+        <v>193</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70">
+        <v>2.7703000000000002</v>
+      </c>
+      <c r="J70">
+        <v>99.127491699999993</v>
+      </c>
+      <c r="K70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" t="s">
+        <v>28</v>
+      </c>
+      <c r="N70">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q70" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="18">
+      <c r="A71" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="G66" t="s">
-        <v>155</v>
-      </c>
-      <c r="I66">
-        <v>2.9178888999999999</v>
-      </c>
-      <c r="J66">
-        <v>98.928805600000004</v>
-      </c>
-      <c r="K66" t="s">
-        <v>27</v>
-      </c>
-      <c r="L66" t="s">
-        <v>28</v>
-      </c>
-      <c r="N66">
-        <v>20.37</v>
-      </c>
-      <c r="O66" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="G71" t="s">
         <v>83</v>
       </c>
-      <c r="Q66" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="18">
-      <c r="A67" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="14" t="s">
+      <c r="I71">
+        <v>2.7870721999999999</v>
+      </c>
+      <c r="J71">
+        <v>99.157019399999996</v>
+      </c>
+      <c r="K71" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P71" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q71" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" t="s">
-        <v>155</v>
-      </c>
-      <c r="I67">
-        <v>2.9178888999999999</v>
-      </c>
-      <c r="J67">
-        <v>98.928805600000004</v>
-      </c>
-      <c r="K67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" t="s">
-        <v>28</v>
-      </c>
-      <c r="N67">
-        <v>7.41</v>
-      </c>
-      <c r="O67" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P67" t="s">
+    </row>
+    <row r="72" spans="1:17" ht="18">
+      <c r="A72" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" t="s">
+        <v>185</v>
+      </c>
+      <c r="G72" t="s">
         <v>83</v>
       </c>
-      <c r="Q67" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="18">
-      <c r="A68" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" t="s">
-        <v>186</v>
-      </c>
-      <c r="G68" t="s">
-        <v>155</v>
-      </c>
-      <c r="I68">
-        <v>2.9178888999999999</v>
-      </c>
-      <c r="J68">
-        <v>98.928805600000004</v>
-      </c>
-      <c r="K68" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" t="s">
-        <v>28</v>
-      </c>
-      <c r="N68">
-        <v>46.3</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="I72">
+        <v>2.7870721999999999</v>
+      </c>
+      <c r="J72">
+        <v>99.157019399999996</v>
+      </c>
+      <c r="K72" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" t="s">
+        <v>28</v>
+      </c>
+      <c r="N72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P72" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q72" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="18">
+      <c r="A73" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73" t="s">
         <v>83</v>
       </c>
-      <c r="Q68" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="18">
-      <c r="A69" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69" t="s">
-        <v>155</v>
-      </c>
-      <c r="I69">
-        <v>2.9178888999999999</v>
-      </c>
-      <c r="J69">
-        <v>98.928805600000004</v>
-      </c>
-      <c r="K69" t="s">
-        <v>27</v>
-      </c>
-      <c r="L69" t="s">
-        <v>28</v>
-      </c>
-      <c r="O69" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P69" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q69" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="18">
-      <c r="A70" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" s="14" t="s">
+      <c r="I73">
+        <v>2.7870721999999999</v>
+      </c>
+      <c r="J73">
+        <v>99.157019399999996</v>
+      </c>
+      <c r="K73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" t="s">
+        <v>28</v>
+      </c>
+      <c r="N73">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q73" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="18">
+      <c r="A74" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" t="s">
-        <v>153</v>
-      </c>
-      <c r="F70" t="s">
-        <v>190</v>
-      </c>
-      <c r="G70" t="s">
-        <v>155</v>
-      </c>
-      <c r="I70">
-        <v>2.9178888999999999</v>
-      </c>
-      <c r="J70">
-        <v>98.928805600000004</v>
-      </c>
-      <c r="K70" t="s">
-        <v>27</v>
-      </c>
-      <c r="L70" t="s">
-        <v>28</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P70" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q70" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="18">
-      <c r="A71" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" t="s">
-        <v>153</v>
-      </c>
-      <c r="F71" t="s">
-        <v>192</v>
-      </c>
-      <c r="G71" t="s">
-        <v>155</v>
-      </c>
-      <c r="I71">
-        <v>2.9178888999999999</v>
-      </c>
-      <c r="J71">
-        <v>98.928805600000004</v>
-      </c>
-      <c r="K71" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" t="s">
-        <v>28</v>
-      </c>
-      <c r="O71" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P71" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q71" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="18">
-      <c r="A72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="I74">
+        <v>2.7870721999999999</v>
+      </c>
+      <c r="J74">
+        <v>99.157019399999996</v>
+      </c>
+      <c r="K74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" t="s">
+        <v>28</v>
+      </c>
+      <c r="N74">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P74" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q74" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="18">
+      <c r="A75" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" t="s">
         <v>193</v>
       </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" t="s">
-        <v>153</v>
-      </c>
-      <c r="F72" t="s">
-        <v>154</v>
-      </c>
-      <c r="G72" t="s">
-        <v>155</v>
-      </c>
-      <c r="I72">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J72">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K72" t="s">
-        <v>27</v>
-      </c>
-      <c r="L72" t="s">
-        <v>28</v>
-      </c>
-      <c r="O72" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P72" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q72" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="18">
-      <c r="A73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" t="s">
-        <v>158</v>
-      </c>
-      <c r="G73" t="s">
-        <v>155</v>
-      </c>
-      <c r="I73">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J73">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K73" t="s">
-        <v>27</v>
-      </c>
-      <c r="L73" t="s">
-        <v>28</v>
-      </c>
-      <c r="N73">
-        <v>9.26</v>
-      </c>
-      <c r="O73" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="G75" t="s">
         <v>83</v>
       </c>
-      <c r="Q73" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="18">
-      <c r="A74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74" t="s">
-        <v>160</v>
-      </c>
-      <c r="G74" t="s">
-        <v>155</v>
-      </c>
-      <c r="I74">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J74">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K74" t="s">
-        <v>27</v>
-      </c>
-      <c r="L74" t="s">
-        <v>28</v>
-      </c>
-      <c r="N74">
-        <v>7.41</v>
-      </c>
-      <c r="O74" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P74" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q74" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="18">
-      <c r="A75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" t="s">
-        <v>162</v>
-      </c>
-      <c r="G75" t="s">
-        <v>155</v>
-      </c>
       <c r="I75">
-        <v>2.9191110999999998</v>
+        <v>2.7870721999999999</v>
       </c>
       <c r="J75">
-        <v>98.934166700000006</v>
+        <v>99.157019399999996</v>
       </c>
       <c r="K75" t="s">
         <v>27</v>
@@ -7736,2409 +7741,16 @@
         <v>28</v>
       </c>
       <c r="N75">
-        <v>12.96</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P75" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q75" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="18">
-      <c r="A76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B76" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" t="s">
-        <v>153</v>
-      </c>
-      <c r="F76" t="s">
-        <v>164</v>
-      </c>
-      <c r="G76" t="s">
-        <v>155</v>
-      </c>
-      <c r="I76">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J76">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K76" t="s">
-        <v>27</v>
-      </c>
-      <c r="L76" t="s">
-        <v>28</v>
-      </c>
-      <c r="N76">
-        <v>9.26</v>
-      </c>
-      <c r="O76" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P76" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q76" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="18">
-      <c r="A77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>166</v>
-      </c>
-      <c r="G77" t="s">
-        <v>155</v>
-      </c>
-      <c r="I77">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J77">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K77" t="s">
-        <v>27</v>
-      </c>
-      <c r="L77" t="s">
-        <v>28</v>
-      </c>
-      <c r="N77">
-        <v>7.41</v>
-      </c>
-      <c r="O77" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P77" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q77" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="18">
-      <c r="A78" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" t="s">
-        <v>155</v>
-      </c>
-      <c r="I78">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J78">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K78" t="s">
-        <v>27</v>
-      </c>
-      <c r="L78" t="s">
-        <v>28</v>
-      </c>
-      <c r="N78">
-        <v>5.56</v>
-      </c>
-      <c r="O78" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P78" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q78" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="18">
-      <c r="A79" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" t="s">
-        <v>200</v>
-      </c>
-      <c r="C79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" t="s">
-        <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>170</v>
-      </c>
-      <c r="G79" t="s">
-        <v>155</v>
-      </c>
-      <c r="I79">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J79">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K79" t="s">
-        <v>27</v>
-      </c>
-      <c r="L79" t="s">
-        <v>28</v>
-      </c>
-      <c r="O79" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P79" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q79" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="18">
-      <c r="A80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" t="s">
-        <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>172</v>
-      </c>
-      <c r="G80" t="s">
-        <v>155</v>
-      </c>
-      <c r="I80">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J80">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K80" t="s">
-        <v>27</v>
-      </c>
-      <c r="L80" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80">
-        <v>7.41</v>
-      </c>
-      <c r="O80" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P80" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q80" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="18">
-      <c r="A81" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>174</v>
-      </c>
-      <c r="G81" t="s">
-        <v>155</v>
-      </c>
-      <c r="I81">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J81">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K81" t="s">
-        <v>27</v>
-      </c>
-      <c r="L81" t="s">
-        <v>28</v>
-      </c>
-      <c r="N81">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="O81" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P81" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q81" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="18">
-      <c r="A82" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" t="s">
-        <v>203</v>
-      </c>
-      <c r="C82" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" t="s">
-        <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>176</v>
-      </c>
-      <c r="G82" t="s">
-        <v>155</v>
-      </c>
-      <c r="I82">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J82">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K82" t="s">
-        <v>27</v>
-      </c>
-      <c r="L82" t="s">
-        <v>28</v>
-      </c>
-      <c r="O82" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P82" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q82" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="18">
-      <c r="A83" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" t="s">
-        <v>204</v>
-      </c>
-      <c r="C83" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>178</v>
-      </c>
-      <c r="G83" t="s">
-        <v>155</v>
-      </c>
-      <c r="I83">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J83">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K83" t="s">
-        <v>27</v>
-      </c>
-      <c r="L83" t="s">
-        <v>28</v>
-      </c>
-      <c r="N83">
-        <v>20.37</v>
-      </c>
-      <c r="O83" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P83" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q83" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="18">
-      <c r="A84" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" t="s">
-        <v>205</v>
-      </c>
-      <c r="C84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F84" t="s">
-        <v>180</v>
-      </c>
-      <c r="G84" t="s">
-        <v>155</v>
-      </c>
-      <c r="I84">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J84">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K84" t="s">
-        <v>27</v>
-      </c>
-      <c r="L84" t="s">
-        <v>28</v>
-      </c>
-      <c r="N84">
-        <v>12.96</v>
-      </c>
-      <c r="O84" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P84" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q84" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="18">
-      <c r="A85" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" t="s">
-        <v>155</v>
-      </c>
-      <c r="I85">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J85">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K85" t="s">
-        <v>27</v>
-      </c>
-      <c r="L85" t="s">
-        <v>28</v>
-      </c>
-      <c r="O85" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P85" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q85" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" ht="18">
-      <c r="A86" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" t="s">
-        <v>207</v>
-      </c>
-      <c r="C86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" t="s">
-        <v>153</v>
-      </c>
-      <c r="F86" t="s">
-        <v>184</v>
-      </c>
-      <c r="G86" t="s">
-        <v>155</v>
-      </c>
-      <c r="I86">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J86">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K86" t="s">
-        <v>27</v>
-      </c>
-      <c r="L86" t="s">
-        <v>28</v>
-      </c>
-      <c r="O86" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P86" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="18">
-      <c r="A87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C87" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" t="s">
-        <v>153</v>
-      </c>
-      <c r="F87" t="s">
-        <v>186</v>
-      </c>
-      <c r="G87" t="s">
-        <v>155</v>
-      </c>
-      <c r="I87">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J87">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K87" t="s">
-        <v>27</v>
-      </c>
-      <c r="L87" t="s">
-        <v>28</v>
-      </c>
-      <c r="O87" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P87" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="18">
-      <c r="A88" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" t="s">
-        <v>153</v>
-      </c>
-      <c r="F88" t="s">
-        <v>188</v>
-      </c>
-      <c r="G88" t="s">
-        <v>155</v>
-      </c>
-      <c r="I88">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J88">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K88" t="s">
-        <v>27</v>
-      </c>
-      <c r="L88" t="s">
-        <v>28</v>
-      </c>
-      <c r="N88">
-        <v>7.41</v>
-      </c>
-      <c r="O88" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P88" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q88" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="18">
-      <c r="A89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" t="s">
-        <v>44</v>
-      </c>
-      <c r="E89" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89" t="s">
-        <v>190</v>
-      </c>
-      <c r="G89" t="s">
-        <v>155</v>
-      </c>
-      <c r="I89">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J89">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K89" t="s">
-        <v>27</v>
-      </c>
-      <c r="L89" t="s">
-        <v>28</v>
-      </c>
-      <c r="O89" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P89" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q89" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="18">
-      <c r="A90" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E90" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" t="s">
-        <v>192</v>
-      </c>
-      <c r="G90" t="s">
-        <v>155</v>
-      </c>
-      <c r="I90">
-        <v>2.9191110999999998</v>
-      </c>
-      <c r="J90">
-        <v>98.934166700000006</v>
-      </c>
-      <c r="K90" t="s">
-        <v>27</v>
-      </c>
-      <c r="L90" t="s">
-        <v>28</v>
-      </c>
-      <c r="N90">
-        <v>7.41</v>
-      </c>
-      <c r="O90" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P90" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q90" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="18">
-      <c r="A91" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" t="s">
-        <v>153</v>
-      </c>
-      <c r="F91" t="s">
-        <v>154</v>
-      </c>
-      <c r="G91" t="s">
-        <v>155</v>
-      </c>
-      <c r="I91">
-        <v>2.9201389</v>
-      </c>
-      <c r="J91">
-        <v>98.9375</v>
-      </c>
-      <c r="K91" t="s">
-        <v>27</v>
-      </c>
-      <c r="L91" t="s">
-        <v>28</v>
-      </c>
-      <c r="N91">
-        <v>9.26</v>
-      </c>
-      <c r="O91" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P91" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q91" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="18">
-      <c r="A92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" t="s">
-        <v>44</v>
-      </c>
-      <c r="E92" t="s">
-        <v>153</v>
-      </c>
-      <c r="F92" t="s">
-        <v>158</v>
-      </c>
-      <c r="G92" t="s">
-        <v>155</v>
-      </c>
-      <c r="I92">
-        <v>2.9201389</v>
-      </c>
-      <c r="J92">
-        <v>98.9375</v>
-      </c>
-      <c r="K92" t="s">
-        <v>27</v>
-      </c>
-      <c r="L92" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P92" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q92" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="18">
-      <c r="A93" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" t="s">
-        <v>78</v>
-      </c>
-      <c r="D93" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" t="s">
-        <v>153</v>
-      </c>
-      <c r="F93" t="s">
-        <v>160</v>
-      </c>
-      <c r="G93" t="s">
-        <v>155</v>
-      </c>
-      <c r="I93">
-        <v>2.9201389</v>
-      </c>
-      <c r="J93">
-        <v>98.9375</v>
-      </c>
-      <c r="K93" t="s">
-        <v>27</v>
-      </c>
-      <c r="L93" t="s">
-        <v>28</v>
-      </c>
-      <c r="N93">
-        <v>11.11</v>
-      </c>
-      <c r="O93" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P93" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q93" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="18">
-      <c r="A94" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" t="s">
-        <v>215</v>
-      </c>
-      <c r="C94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" t="s">
-        <v>153</v>
-      </c>
-      <c r="F94" t="s">
-        <v>162</v>
-      </c>
-      <c r="G94" t="s">
-        <v>155</v>
-      </c>
-      <c r="I94">
-        <v>2.9201389</v>
-      </c>
-      <c r="J94">
-        <v>98.9375</v>
-      </c>
-      <c r="K94" t="s">
-        <v>27</v>
-      </c>
-      <c r="L94" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94">
-        <v>14.81</v>
-      </c>
-      <c r="O94" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P94" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q94" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="18">
-      <c r="A95" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" t="s">
-        <v>216</v>
-      </c>
-      <c r="C95" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F95" t="s">
-        <v>164</v>
-      </c>
-      <c r="G95" t="s">
-        <v>155</v>
-      </c>
-      <c r="I95">
-        <v>2.9201389</v>
-      </c>
-      <c r="J95">
-        <v>98.9375</v>
-      </c>
-      <c r="K95" t="s">
-        <v>27</v>
-      </c>
-      <c r="L95" t="s">
-        <v>28</v>
-      </c>
-      <c r="N95">
-        <v>3.7</v>
-      </c>
-      <c r="O95" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P95" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q95" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="18">
-      <c r="A96" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" t="s">
-        <v>217</v>
-      </c>
-      <c r="C96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" t="s">
-        <v>153</v>
-      </c>
-      <c r="F96" t="s">
-        <v>166</v>
-      </c>
-      <c r="G96" t="s">
-        <v>155</v>
-      </c>
-      <c r="I96">
-        <v>2.9201389</v>
-      </c>
-      <c r="J96">
-        <v>98.9375</v>
-      </c>
-      <c r="K96" t="s">
-        <v>27</v>
-      </c>
-      <c r="L96" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P96" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q96" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="18">
-      <c r="A97" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" t="s">
-        <v>153</v>
-      </c>
-      <c r="F97" t="s">
-        <v>168</v>
-      </c>
-      <c r="G97" t="s">
-        <v>155</v>
-      </c>
-      <c r="I97">
-        <v>2.9201389</v>
-      </c>
-      <c r="J97">
-        <v>98.9375</v>
-      </c>
-      <c r="K97" t="s">
-        <v>27</v>
-      </c>
-      <c r="L97" t="s">
-        <v>28</v>
-      </c>
-      <c r="O97" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P97" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q97" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="18">
-      <c r="A98" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" t="s">
-        <v>219</v>
-      </c>
-      <c r="C98" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" t="s">
-        <v>153</v>
-      </c>
-      <c r="F98" t="s">
-        <v>170</v>
-      </c>
-      <c r="G98" t="s">
-        <v>155</v>
-      </c>
-      <c r="I98">
-        <v>2.9201389</v>
-      </c>
-      <c r="J98">
-        <v>98.9375</v>
-      </c>
-      <c r="K98" t="s">
-        <v>27</v>
-      </c>
-      <c r="L98" t="s">
-        <v>28</v>
-      </c>
-      <c r="N98">
-        <v>12.96</v>
-      </c>
-      <c r="O98" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P98" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q98" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="18">
-      <c r="A99" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" t="s">
-        <v>153</v>
-      </c>
-      <c r="F99" t="s">
-        <v>172</v>
-      </c>
-      <c r="G99" t="s">
-        <v>155</v>
-      </c>
-      <c r="I99">
-        <v>2.9201389</v>
-      </c>
-      <c r="J99">
-        <v>98.9375</v>
-      </c>
-      <c r="K99" t="s">
-        <v>27</v>
-      </c>
-      <c r="L99" t="s">
-        <v>28</v>
-      </c>
-      <c r="O99" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P99" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q99" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="18">
-      <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" t="s">
-        <v>153</v>
-      </c>
-      <c r="F100" t="s">
-        <v>174</v>
-      </c>
-      <c r="G100" t="s">
-        <v>155</v>
-      </c>
-      <c r="I100">
-        <v>2.9201389</v>
-      </c>
-      <c r="J100">
-        <v>98.9375</v>
-      </c>
-      <c r="K100" t="s">
-        <v>27</v>
-      </c>
-      <c r="L100" t="s">
-        <v>28</v>
-      </c>
-      <c r="O100" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P100" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q100" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="18">
-      <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" t="s">
-        <v>153</v>
-      </c>
-      <c r="F101" t="s">
-        <v>176</v>
-      </c>
-      <c r="G101" t="s">
-        <v>155</v>
-      </c>
-      <c r="I101">
-        <v>2.9201389</v>
-      </c>
-      <c r="J101">
-        <v>98.9375</v>
-      </c>
-      <c r="K101" t="s">
-        <v>27</v>
-      </c>
-      <c r="L101" t="s">
-        <v>28</v>
-      </c>
-      <c r="N101">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="O101" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P101" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q101" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="18">
-      <c r="A102" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" t="s">
-        <v>223</v>
-      </c>
-      <c r="C102" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" t="s">
-        <v>153</v>
-      </c>
-      <c r="F102" t="s">
-        <v>178</v>
-      </c>
-      <c r="G102" t="s">
-        <v>155</v>
-      </c>
-      <c r="I102">
-        <v>2.9201389</v>
-      </c>
-      <c r="J102">
-        <v>98.9375</v>
-      </c>
-      <c r="K102" t="s">
-        <v>27</v>
-      </c>
-      <c r="L102" t="s">
-        <v>28</v>
-      </c>
-      <c r="O102" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P102" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q102" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="18">
-      <c r="A103" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" t="s">
-        <v>224</v>
-      </c>
-      <c r="C103" t="s">
-        <v>78</v>
-      </c>
-      <c r="D103" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" t="s">
-        <v>153</v>
-      </c>
-      <c r="F103" t="s">
-        <v>180</v>
-      </c>
-      <c r="G103" t="s">
-        <v>155</v>
-      </c>
-      <c r="I103">
-        <v>2.9201389</v>
-      </c>
-      <c r="J103">
-        <v>98.9375</v>
-      </c>
-      <c r="K103" t="s">
-        <v>27</v>
-      </c>
-      <c r="L103" t="s">
-        <v>28</v>
-      </c>
-      <c r="O103" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P103" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q103" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="18">
-      <c r="A104" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" t="s">
-        <v>225</v>
-      </c>
-      <c r="C104" t="s">
-        <v>78</v>
-      </c>
-      <c r="D104" t="s">
-        <v>44</v>
-      </c>
-      <c r="E104" t="s">
-        <v>153</v>
-      </c>
-      <c r="F104" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104" t="s">
-        <v>155</v>
-      </c>
-      <c r="I104">
-        <v>2.9201389</v>
-      </c>
-      <c r="J104">
-        <v>98.9375</v>
-      </c>
-      <c r="K104" t="s">
-        <v>27</v>
-      </c>
-      <c r="L104" t="s">
-        <v>28</v>
-      </c>
-      <c r="O104" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P104" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q104" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="18">
-      <c r="A105" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" t="s">
-        <v>226</v>
-      </c>
-      <c r="C105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" t="s">
-        <v>44</v>
-      </c>
-      <c r="E105" t="s">
-        <v>153</v>
-      </c>
-      <c r="F105" t="s">
-        <v>184</v>
-      </c>
-      <c r="G105" t="s">
-        <v>155</v>
-      </c>
-      <c r="I105">
-        <v>2.9201389</v>
-      </c>
-      <c r="J105">
-        <v>98.9375</v>
-      </c>
-      <c r="K105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L105" t="s">
-        <v>28</v>
-      </c>
-      <c r="O105" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P105" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q105" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="18">
-      <c r="A106" t="s">
-        <v>54</v>
-      </c>
-      <c r="B106" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E106" t="s">
-        <v>153</v>
-      </c>
-      <c r="F106" t="s">
-        <v>186</v>
-      </c>
-      <c r="G106" t="s">
-        <v>155</v>
-      </c>
-      <c r="I106">
-        <v>2.9201389</v>
-      </c>
-      <c r="J106">
-        <v>98.9375</v>
-      </c>
-      <c r="K106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L106" t="s">
-        <v>28</v>
-      </c>
-      <c r="O106" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P106" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q106" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="18">
-      <c r="A107" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" t="s">
-        <v>228</v>
-      </c>
-      <c r="C107" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" t="s">
-        <v>153</v>
-      </c>
-      <c r="F107" t="s">
-        <v>188</v>
-      </c>
-      <c r="G107" t="s">
-        <v>155</v>
-      </c>
-      <c r="I107">
-        <v>2.9201389</v>
-      </c>
-      <c r="J107">
-        <v>98.9375</v>
-      </c>
-      <c r="K107" t="s">
-        <v>27</v>
-      </c>
-      <c r="L107" t="s">
-        <v>28</v>
-      </c>
-      <c r="N107">
-        <v>14.81</v>
-      </c>
-      <c r="O107" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P107" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q107" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="18">
-      <c r="A108" t="s">
-        <v>54</v>
-      </c>
-      <c r="B108" t="s">
-        <v>229</v>
-      </c>
-      <c r="C108" t="s">
-        <v>78</v>
-      </c>
-      <c r="D108" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" t="s">
-        <v>153</v>
-      </c>
-      <c r="F108" t="s">
-        <v>190</v>
-      </c>
-      <c r="G108" t="s">
-        <v>155</v>
-      </c>
-      <c r="I108">
-        <v>2.9201389</v>
-      </c>
-      <c r="J108">
-        <v>98.9375</v>
-      </c>
-      <c r="K108" t="s">
-        <v>27</v>
-      </c>
-      <c r="L108" t="s">
-        <v>28</v>
-      </c>
-      <c r="N108">
-        <v>22.22</v>
-      </c>
-      <c r="O108" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P108" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q108" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="18">
-      <c r="A109" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" t="s">
-        <v>230</v>
-      </c>
-      <c r="C109" t="s">
-        <v>78</v>
-      </c>
-      <c r="D109" t="s">
-        <v>44</v>
-      </c>
-      <c r="E109" t="s">
-        <v>153</v>
-      </c>
-      <c r="F109" t="s">
-        <v>192</v>
-      </c>
-      <c r="G109" t="s">
-        <v>155</v>
-      </c>
-      <c r="I109">
-        <v>2.9201389</v>
-      </c>
-      <c r="J109">
-        <v>98.9375</v>
-      </c>
-      <c r="K109" t="s">
-        <v>27</v>
-      </c>
-      <c r="L109" t="s">
-        <v>28</v>
-      </c>
-      <c r="N109">
-        <v>37.04</v>
-      </c>
-      <c r="O109" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P109" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q109" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="18">
-      <c r="A110" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" t="s">
-        <v>78</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" t="s">
-        <v>153</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G110" t="s">
-        <v>81</v>
-      </c>
-      <c r="I110">
-        <v>2.7688527999999999</v>
-      </c>
-      <c r="J110">
-        <v>99.125763899999995</v>
-      </c>
-      <c r="K110" t="s">
-        <v>27</v>
-      </c>
-      <c r="L110" t="s">
-        <v>28</v>
-      </c>
-      <c r="N110">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O110" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P110" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q110" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="18">
-      <c r="A111" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" t="s">
-        <v>78</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" t="s">
-        <v>153</v>
-      </c>
-      <c r="F111" t="s">
-        <v>235</v>
-      </c>
-      <c r="G111" t="s">
-        <v>81</v>
-      </c>
-      <c r="I111">
-        <v>2.7688527999999999</v>
-      </c>
-      <c r="J111">
-        <v>99.125763899999995</v>
-      </c>
-      <c r="K111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L111" t="s">
-        <v>28</v>
-      </c>
-      <c r="N111">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O111" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P111" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q111" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="18">
-      <c r="A112" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C112" t="s">
-        <v>78</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" t="s">
-        <v>153</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G112" t="s">
-        <v>81</v>
-      </c>
-      <c r="I112">
-        <v>2.7688527999999999</v>
-      </c>
-      <c r="J112">
-        <v>99.125763899999995</v>
-      </c>
-      <c r="K112" t="s">
-        <v>27</v>
-      </c>
-      <c r="L112" t="s">
-        <v>28</v>
-      </c>
-      <c r="N112">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O112" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P112" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q112" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="18">
-      <c r="A113" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" t="s">
-        <v>78</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" t="s">
-        <v>153</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G113" t="s">
-        <v>81</v>
-      </c>
-      <c r="I113">
-        <v>2.7688527999999999</v>
-      </c>
-      <c r="J113">
-        <v>99.125763899999995</v>
-      </c>
-      <c r="K113" t="s">
-        <v>27</v>
-      </c>
-      <c r="L113" t="s">
-        <v>28</v>
-      </c>
-      <c r="N113">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O113" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P113" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q113" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="18">
-      <c r="A114" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C114" t="s">
-        <v>78</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" t="s">
-        <v>153</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="G114" t="s">
-        <v>81</v>
-      </c>
-      <c r="I114">
-        <v>2.7688527999999999</v>
-      </c>
-      <c r="J114">
-        <v>99.125763899999995</v>
-      </c>
-      <c r="K114" t="s">
-        <v>27</v>
-      </c>
-      <c r="L114" t="s">
-        <v>28</v>
-      </c>
-      <c r="N114">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O114" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P114" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q114" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="18">
-      <c r="A115" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E115" t="s">
-        <v>153</v>
-      </c>
-      <c r="F115" t="s">
-        <v>243</v>
-      </c>
-      <c r="G115" t="s">
-        <v>81</v>
-      </c>
-      <c r="I115">
-        <v>2.7688527999999999</v>
-      </c>
-      <c r="J115">
-        <v>99.125763899999995</v>
-      </c>
-      <c r="K115" t="s">
-        <v>27</v>
-      </c>
-      <c r="L115" t="s">
-        <v>28</v>
-      </c>
-      <c r="N115">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O115" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P115" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q115" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="18">
-      <c r="A116" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C116" t="s">
-        <v>78</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" t="s">
-        <v>153</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G116" t="s">
-        <v>81</v>
-      </c>
-      <c r="I116">
-        <v>2.7703000000000002</v>
-      </c>
-      <c r="J116">
-        <v>99.127491699999993</v>
-      </c>
-      <c r="K116" t="s">
-        <v>27</v>
-      </c>
-      <c r="L116" t="s">
-        <v>28</v>
-      </c>
-      <c r="N116">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O116" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P116" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q116" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="18">
-      <c r="A117" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" t="s">
-        <v>78</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E117" t="s">
-        <v>153</v>
-      </c>
-      <c r="F117" t="s">
-        <v>235</v>
-      </c>
-      <c r="G117" t="s">
-        <v>81</v>
-      </c>
-      <c r="I117">
-        <v>2.7703000000000002</v>
-      </c>
-      <c r="J117">
-        <v>99.127491699999993</v>
-      </c>
-      <c r="K117" t="s">
-        <v>27</v>
-      </c>
-      <c r="L117" t="s">
-        <v>28</v>
-      </c>
-      <c r="N117">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O117" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P117" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q117" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="18">
-      <c r="A118" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C118" t="s">
-        <v>78</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E118" t="s">
-        <v>153</v>
-      </c>
-      <c r="F118" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G118" t="s">
-        <v>81</v>
-      </c>
-      <c r="I118">
-        <v>2.7703000000000002</v>
-      </c>
-      <c r="J118">
-        <v>99.127491699999993</v>
-      </c>
-      <c r="K118" t="s">
-        <v>27</v>
-      </c>
-      <c r="L118" t="s">
-        <v>28</v>
-      </c>
-      <c r="N118">
-        <v>1.2E-2</v>
-      </c>
-      <c r="O118" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P118" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q118" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="18">
-      <c r="A119" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C119" t="s">
-        <v>78</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E119" t="s">
-        <v>153</v>
-      </c>
-      <c r="F119" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G119" t="s">
-        <v>81</v>
-      </c>
-      <c r="I119">
-        <v>2.7703000000000002</v>
-      </c>
-      <c r="J119">
-        <v>99.127491699999993</v>
-      </c>
-      <c r="K119" t="s">
-        <v>27</v>
-      </c>
-      <c r="L119" t="s">
-        <v>28</v>
-      </c>
-      <c r="N119">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O119" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P119" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q119" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="18">
-      <c r="A120" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C120" t="s">
-        <v>78</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E120" t="s">
-        <v>153</v>
-      </c>
-      <c r="F120" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="G120" t="s">
-        <v>81</v>
-      </c>
-      <c r="I120">
-        <v>2.7703000000000002</v>
-      </c>
-      <c r="J120">
-        <v>99.127491699999993</v>
-      </c>
-      <c r="K120" t="s">
-        <v>27</v>
-      </c>
-      <c r="L120" t="s">
-        <v>28</v>
-      </c>
-      <c r="N120">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O120" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P120" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q120" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="18">
-      <c r="A121" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C121" t="s">
-        <v>78</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" t="s">
-        <v>153</v>
-      </c>
-      <c r="F121" t="s">
-        <v>243</v>
-      </c>
-      <c r="G121" t="s">
-        <v>81</v>
-      </c>
-      <c r="I121">
-        <v>2.7703000000000002</v>
-      </c>
-      <c r="J121">
-        <v>99.127491699999993</v>
-      </c>
-      <c r="K121" t="s">
-        <v>27</v>
-      </c>
-      <c r="L121" t="s">
-        <v>28</v>
-      </c>
-      <c r="N121">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O121" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P121" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q121" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="18">
-      <c r="A122" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C122" t="s">
-        <v>78</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E122" t="s">
-        <v>153</v>
-      </c>
-      <c r="F122" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G122" t="s">
-        <v>81</v>
-      </c>
-      <c r="I122">
-        <v>2.7870721999999999</v>
-      </c>
-      <c r="J122">
-        <v>99.157019399999996</v>
-      </c>
-      <c r="K122" t="s">
-        <v>27</v>
-      </c>
-      <c r="L122" t="s">
-        <v>28</v>
-      </c>
-      <c r="N122">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O122" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P122" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q122" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="18">
-      <c r="A123" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E123" t="s">
-        <v>153</v>
-      </c>
-      <c r="F123" t="s">
-        <v>235</v>
-      </c>
-      <c r="G123" t="s">
-        <v>81</v>
-      </c>
-      <c r="I123">
-        <v>2.7870721999999999</v>
-      </c>
-      <c r="J123">
-        <v>99.157019399999996</v>
-      </c>
-      <c r="K123" t="s">
-        <v>27</v>
-      </c>
-      <c r="L123" t="s">
-        <v>28</v>
-      </c>
-      <c r="N123">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O123" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P123" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q123" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="18">
-      <c r="A124" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E124" t="s">
-        <v>153</v>
-      </c>
-      <c r="F124" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G124" t="s">
-        <v>81</v>
-      </c>
-      <c r="I124">
-        <v>2.7870721999999999</v>
-      </c>
-      <c r="J124">
-        <v>99.157019399999996</v>
-      </c>
-      <c r="K124" t="s">
-        <v>27</v>
-      </c>
-      <c r="L124" t="s">
-        <v>28</v>
-      </c>
-      <c r="N124">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O124" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P124" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q124" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="18">
-      <c r="A125" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C125" t="s">
-        <v>78</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E125" t="s">
-        <v>153</v>
-      </c>
-      <c r="F125" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G125" t="s">
-        <v>81</v>
-      </c>
-      <c r="I125">
-        <v>2.7870721999999999</v>
-      </c>
-      <c r="J125">
-        <v>99.157019399999996</v>
-      </c>
-      <c r="K125" t="s">
-        <v>27</v>
-      </c>
-      <c r="L125" t="s">
-        <v>28</v>
-      </c>
-      <c r="N125">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O125" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P125" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q125" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="18">
-      <c r="A126" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" t="s">
-        <v>78</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E126" t="s">
-        <v>153</v>
-      </c>
-      <c r="F126" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="G126" t="s">
-        <v>81</v>
-      </c>
-      <c r="I126">
-        <v>2.7870721999999999</v>
-      </c>
-      <c r="J126">
-        <v>99.157019399999996</v>
-      </c>
-      <c r="K126" t="s">
-        <v>27</v>
-      </c>
-      <c r="L126" t="s">
-        <v>28</v>
-      </c>
-      <c r="O126" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P126" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q126" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="18">
-      <c r="A127" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" t="s">
-        <v>78</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" t="s">
-        <v>153</v>
-      </c>
-      <c r="F127" t="s">
-        <v>243</v>
-      </c>
-      <c r="G127" t="s">
-        <v>81</v>
-      </c>
-      <c r="I127">
-        <v>2.7870721999999999</v>
-      </c>
-      <c r="J127">
-        <v>99.157019399999996</v>
-      </c>
-      <c r="K127" t="s">
-        <v>27</v>
-      </c>
-      <c r="L127" t="s">
-        <v>28</v>
-      </c>
-      <c r="N127">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="O127" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P127" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q127" s="21" t="s">
-        <v>233</v>
+        <v>85</v>
+      </c>
+      <c r="Q75" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -10175,28 +7787,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>19</v>
@@ -10207,28 +7819,28 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="F2">
         <v>2017</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10236,28 +7848,28 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="F3">
         <v>2017</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10265,28 +7877,28 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="F4">
         <v>2017</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="I4" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10307,7 +7919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -10331,25 +7943,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/input_xlsx/RS_2018-12-08.xlsx
+++ b/input_xlsx/RS_2018-12-08.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tambora\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\PROJECTS\biodiverskripsi_data_visualization\input_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F2D9BF-3761-4823-9EBC-BD3D103BE32D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -22,13 +23,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -428,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -508,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -548,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -588,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -628,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -668,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -708,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -788,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -815,13 +816,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -861,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -901,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -941,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -981,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1021,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1070,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1430,7 +1431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1470,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0">
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1497,13 +1498,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1543,7 +1544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1623,7 +1624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1663,7 +1664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1703,7 +1704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1743,7 +1744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1783,7 +1784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1823,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1863,7 +1864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1890,12 +1891,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1935,7 +1936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1975,7 +1976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1998,7 +1999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2038,7 +2039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2078,7 +2079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2118,7 +2119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2158,7 +2159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2198,7 +2199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="231">
   <si>
     <t>parentEventID</t>
   </si>
@@ -2441,12 +2442,6 @@
   </si>
   <si>
     <t>USU-2017RS-RS007-ST003</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>”</t>
   </si>
   <si>
     <t>occurrenceID</t>
@@ -2967,7 +2962,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -3553,12 +3548,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4153,17 +4148,13 @@
       <c r="K19" s="22"/>
     </row>
     <row r="20" spans="11:11">
-      <c r="K20" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="11:11" ht="18.75">
       <c r="K21" s="22"/>
     </row>
     <row r="22" spans="11:11">
-      <c r="K22" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="11:11" ht="18.75">
       <c r="K23" s="22"/>
@@ -4175,9 +4166,7 @@
       <c r="K25" s="22"/>
     </row>
     <row r="26" spans="11:11">
-      <c r="K26" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="11:11" ht="18.75">
       <c r="K27" s="22"/>
@@ -4190,7 +4179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
@@ -4224,25 +4213,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -4257,19 +4246,19 @@
         <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>19</v>
@@ -4280,22 +4269,22 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
       </c>
       <c r="I2" s="15">
         <v>1.4162555999999999</v>
@@ -4313,13 +4302,13 @@
         <v>17.2</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18">
@@ -4327,22 +4316,22 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
         <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
       </c>
       <c r="I3" s="15">
         <v>1.4162555999999999</v>
@@ -4360,13 +4349,13 @@
         <v>58.8</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18">
@@ -4374,22 +4363,22 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
       </c>
       <c r="I4" s="15">
         <v>1.4162555999999999</v>
@@ -4407,13 +4396,13 @@
         <v>1.6</v>
       </c>
       <c r="O4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18">
@@ -4421,22 +4410,22 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
         <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
       </c>
       <c r="I5" s="15">
         <v>1.4162555999999999</v>
@@ -4454,13 +4443,13 @@
         <v>5</v>
       </c>
       <c r="O5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18">
@@ -4468,22 +4457,22 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
         <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
       </c>
       <c r="I6" s="15">
         <v>1.4162555999999999</v>
@@ -4501,13 +4490,13 @@
         <v>0.2</v>
       </c>
       <c r="O6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18">
@@ -4515,22 +4504,22 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
       </c>
       <c r="I7" s="15">
         <v>1.4162555999999999</v>
@@ -4548,13 +4537,13 @@
         <v>3.3</v>
       </c>
       <c r="O7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18">
@@ -4562,22 +4551,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
       </c>
       <c r="I8" s="15">
         <v>1.3991194</v>
@@ -4595,13 +4584,13 @@
         <v>3.6</v>
       </c>
       <c r="O8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="18">
@@ -4609,22 +4598,22 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
         <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
       </c>
       <c r="I9" s="15">
         <v>1.3991194</v>
@@ -4642,13 +4631,13 @@
         <v>0.2</v>
       </c>
       <c r="O9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18">
@@ -4656,22 +4645,22 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
       </c>
       <c r="I10" s="15">
         <v>1.3991194</v>
@@ -4689,13 +4678,13 @@
         <v>1.3</v>
       </c>
       <c r="O10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18">
@@ -4703,22 +4692,22 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
       </c>
       <c r="I11" s="15">
         <v>1.3991194</v>
@@ -4736,13 +4725,13 @@
         <v>3.2</v>
       </c>
       <c r="O11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="18">
@@ -4750,22 +4739,22 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
       </c>
       <c r="I12" s="15">
         <v>1.3991194</v>
@@ -4783,13 +4772,13 @@
         <v>0.6</v>
       </c>
       <c r="O12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18">
@@ -4797,22 +4786,22 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
       </c>
       <c r="I13" s="15">
         <v>1.3991194</v>
@@ -4830,13 +4819,13 @@
         <v>2.6</v>
       </c>
       <c r="O13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18">
@@ -4844,22 +4833,22 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
         <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
       </c>
       <c r="I14" s="15">
         <v>1.3991194</v>
@@ -4877,13 +4866,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="O14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18">
@@ -4891,22 +4880,22 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
         <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
       </c>
       <c r="I15" s="15">
         <v>1.3991194</v>
@@ -4924,13 +4913,13 @@
         <v>3.7</v>
       </c>
       <c r="O15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18">
@@ -4938,22 +4927,22 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
         <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
       </c>
       <c r="I16" s="15">
         <v>1.3991194</v>
@@ -4971,13 +4960,13 @@
         <v>1.6</v>
       </c>
       <c r="O16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18">
@@ -4985,22 +4974,22 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>83</v>
       </c>
       <c r="I17" s="15">
         <v>1.3991194</v>
@@ -5018,13 +5007,13 @@
         <v>1.2</v>
       </c>
       <c r="O17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18">
@@ -5032,22 +5021,22 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
         <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
       </c>
       <c r="I18" s="15">
         <v>1.3991194</v>
@@ -5065,13 +5054,13 @@
         <v>2.7</v>
       </c>
       <c r="O18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18">
@@ -5079,22 +5068,22 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>83</v>
       </c>
       <c r="I19" s="15">
         <v>1.3991194</v>
@@ -5112,13 +5101,13 @@
         <v>0.68</v>
       </c>
       <c r="O19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P19" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18">
@@ -5126,22 +5115,22 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
         <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
       </c>
       <c r="I20" s="15">
         <v>1.3991194</v>
@@ -5159,13 +5148,13 @@
         <v>1.2</v>
       </c>
       <c r="O20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18">
@@ -5173,22 +5162,22 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
         <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>83</v>
       </c>
       <c r="I21" s="15">
         <v>1.3991194</v>
@@ -5206,13 +5195,13 @@
         <v>0.7</v>
       </c>
       <c r="O21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18">
@@ -5220,22 +5209,22 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
       </c>
       <c r="I22" s="15">
         <v>1.4158360999999999</v>
@@ -5253,13 +5242,13 @@
         <v>40.299999999999997</v>
       </c>
       <c r="O22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18">
@@ -5267,22 +5256,22 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
         <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
       </c>
       <c r="I23" s="15">
         <v>1.4158360999999999</v>
@@ -5300,13 +5289,13 @@
         <v>82.6</v>
       </c>
       <c r="O23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P23" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="18">
@@ -5314,22 +5303,22 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
         <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
       </c>
       <c r="I24" s="15">
         <v>1.4158360999999999</v>
@@ -5347,13 +5336,13 @@
         <v>6.8</v>
       </c>
       <c r="O24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P24" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18">
@@ -5361,22 +5350,22 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>83</v>
       </c>
       <c r="I25" s="15">
         <v>1.4158360999999999</v>
@@ -5394,13 +5383,13 @@
         <v>5.5</v>
       </c>
       <c r="O25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P25" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18">
@@ -5408,22 +5397,22 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
         <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" t="s">
-        <v>83</v>
       </c>
       <c r="I26" s="15">
         <v>1.4158360999999999</v>
@@ -5441,13 +5430,13 @@
         <v>1.9</v>
       </c>
       <c r="O26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18">
@@ -5455,22 +5444,22 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
         <v>81</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" t="s">
-        <v>83</v>
       </c>
       <c r="I27" s="15">
         <v>1.4158360999999999</v>
@@ -5488,13 +5477,13 @@
         <v>5.3</v>
       </c>
       <c r="O27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="P27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="18">
@@ -5502,22 +5491,22 @@
         <v>43</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" t="s">
         <v>129</v>
-      </c>
-      <c r="F28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" t="s">
-        <v>131</v>
       </c>
       <c r="I28">
         <v>2.9178888999999999</v>
@@ -5535,13 +5524,13 @@
         <v>3.7</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="18">
@@ -5549,22 +5538,22 @@
         <v>43</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
         <v>129</v>
-      </c>
-      <c r="F29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" t="s">
-        <v>131</v>
       </c>
       <c r="I29">
         <v>2.9178888999999999</v>
@@ -5582,13 +5571,13 @@
         <v>14.81</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="18">
@@ -5596,22 +5585,22 @@
         <v>43</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" t="s">
         <v>129</v>
-      </c>
-      <c r="F30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" t="s">
-        <v>131</v>
       </c>
       <c r="I30">
         <v>2.9178888999999999</v>
@@ -5629,13 +5618,13 @@
         <v>11.11</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="18">
@@ -5643,22 +5632,22 @@
         <v>43</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" t="s">
         <v>129</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" t="s">
-        <v>131</v>
       </c>
       <c r="I31">
         <v>2.9178888999999999</v>
@@ -5676,13 +5665,13 @@
         <v>18.52</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="18">
@@ -5690,22 +5679,22 @@
         <v>43</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
       </c>
       <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
         <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" t="s">
-        <v>131</v>
       </c>
       <c r="I32">
         <v>2.9178888999999999</v>
@@ -5723,13 +5712,13 @@
         <v>12.96</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="18">
@@ -5737,22 +5726,22 @@
         <v>43</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
       <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" t="s">
         <v>129</v>
-      </c>
-      <c r="F33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" t="s">
-        <v>131</v>
       </c>
       <c r="I33">
         <v>2.9178888999999999</v>
@@ -5770,13 +5759,13 @@
         <v>12.96</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="18">
@@ -5784,22 +5773,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
       <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" t="s">
         <v>129</v>
-      </c>
-      <c r="F34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" t="s">
-        <v>131</v>
       </c>
       <c r="I34">
         <v>2.9178888999999999</v>
@@ -5817,13 +5806,13 @@
         <v>7.41</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18">
@@ -5831,22 +5820,22 @@
         <v>43</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
       </c>
       <c r="E35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" t="s">
         <v>129</v>
-      </c>
-      <c r="F35" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" t="s">
-        <v>131</v>
       </c>
       <c r="I35">
         <v>2.9178888999999999</v>
@@ -5864,13 +5853,13 @@
         <v>20.37</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18">
@@ -5878,22 +5867,22 @@
         <v>43</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
       </c>
       <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" t="s">
         <v>129</v>
-      </c>
-      <c r="F36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" t="s">
-        <v>131</v>
       </c>
       <c r="I36">
         <v>2.9178888999999999</v>
@@ -5911,13 +5900,13 @@
         <v>7.41</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="18">
@@ -5925,22 +5914,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
       </c>
       <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" t="s">
         <v>129</v>
-      </c>
-      <c r="F37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" t="s">
-        <v>131</v>
       </c>
       <c r="I37">
         <v>2.9178888999999999</v>
@@ -5958,13 +5947,13 @@
         <v>46.3</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="18">
@@ -5972,22 +5961,22 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
       </c>
       <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" t="s">
         <v>129</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" t="s">
-        <v>131</v>
       </c>
       <c r="I38">
         <v>2.9191110999999998</v>
@@ -6005,13 +5994,13 @@
         <v>9.26</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18">
@@ -6019,22 +6008,22 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" t="s">
         <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" t="s">
-        <v>131</v>
       </c>
       <c r="I39">
         <v>2.9191110999999998</v>
@@ -6052,13 +6041,13 @@
         <v>7.41</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18">
@@ -6066,22 +6055,22 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" t="s">
         <v>129</v>
-      </c>
-      <c r="F40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" t="s">
-        <v>131</v>
       </c>
       <c r="I40">
         <v>2.9191110999999998</v>
@@ -6099,13 +6088,13 @@
         <v>12.96</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="18">
@@ -6113,22 +6102,22 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
       </c>
       <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" t="s">
         <v>129</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" t="s">
-        <v>131</v>
       </c>
       <c r="I41">
         <v>2.9191110999999998</v>
@@ -6146,13 +6135,13 @@
         <v>9.26</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="18">
@@ -6160,22 +6149,22 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
       </c>
       <c r="E42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" t="s">
         <v>129</v>
-      </c>
-      <c r="F42" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" t="s">
-        <v>131</v>
       </c>
       <c r="I42">
         <v>2.9191110999999998</v>
@@ -6193,13 +6182,13 @@
         <v>7.41</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="18">
@@ -6207,22 +6196,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" t="s">
         <v>129</v>
-      </c>
-      <c r="F43" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" t="s">
-        <v>131</v>
       </c>
       <c r="I43">
         <v>2.9191110999999998</v>
@@ -6240,13 +6229,13 @@
         <v>5.56</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="18">
@@ -6254,22 +6243,22 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
         <v>129</v>
-      </c>
-      <c r="F44" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" t="s">
-        <v>131</v>
       </c>
       <c r="I44">
         <v>2.9191110999999998</v>
@@ -6287,13 +6276,13 @@
         <v>7.41</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18">
@@ -6301,22 +6290,22 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" t="s">
         <v>129</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" t="s">
-        <v>131</v>
       </c>
       <c r="I45">
         <v>2.9191110999999998</v>
@@ -6334,13 +6323,13 @@
         <v>16.670000000000002</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="18">
@@ -6348,22 +6337,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" t="s">
         <v>129</v>
-      </c>
-      <c r="F46" t="s">
-        <v>152</v>
-      </c>
-      <c r="G46" t="s">
-        <v>131</v>
       </c>
       <c r="I46">
         <v>2.9191110999999998</v>
@@ -6381,13 +6370,13 @@
         <v>20.37</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="18">
@@ -6395,22 +6384,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" t="s">
         <v>129</v>
-      </c>
-      <c r="F47" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" t="s">
-        <v>131</v>
       </c>
       <c r="I47">
         <v>2.9191110999999998</v>
@@ -6428,13 +6417,13 @@
         <v>12.96</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="18">
@@ -6442,22 +6431,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" t="s">
         <v>129</v>
-      </c>
-      <c r="F48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" t="s">
-        <v>131</v>
       </c>
       <c r="I48">
         <v>2.9191110999999998</v>
@@ -6475,13 +6464,13 @@
         <v>7.41</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="18">
@@ -6489,22 +6478,22 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
         <v>44</v>
       </c>
       <c r="E49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" t="s">
         <v>129</v>
-      </c>
-      <c r="F49" t="s">
-        <v>159</v>
-      </c>
-      <c r="G49" t="s">
-        <v>131</v>
       </c>
       <c r="I49">
         <v>2.9191110999999998</v>
@@ -6522,13 +6511,13 @@
         <v>7.41</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="18">
@@ -6536,22 +6525,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
       </c>
       <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" t="s">
         <v>129</v>
-      </c>
-      <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" t="s">
-        <v>131</v>
       </c>
       <c r="I50">
         <v>2.9201389</v>
@@ -6569,13 +6558,13 @@
         <v>9.26</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="18">
@@ -6583,22 +6572,22 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
       </c>
       <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" t="s">
         <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" t="s">
-        <v>131</v>
       </c>
       <c r="I51">
         <v>2.9201389</v>
@@ -6616,13 +6605,13 @@
         <v>11.11</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="18">
@@ -6630,22 +6619,22 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
       </c>
       <c r="E52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" t="s">
         <v>129</v>
-      </c>
-      <c r="F52" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" t="s">
-        <v>131</v>
       </c>
       <c r="I52">
         <v>2.9201389</v>
@@ -6663,13 +6652,13 @@
         <v>14.81</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="18">
@@ -6677,22 +6666,22 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
       </c>
       <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" t="s">
         <v>129</v>
-      </c>
-      <c r="F53" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" t="s">
-        <v>131</v>
       </c>
       <c r="I53">
         <v>2.9201389</v>
@@ -6710,13 +6699,13 @@
         <v>3.7</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="18">
@@ -6724,22 +6713,22 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
       </c>
       <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" t="s">
         <v>129</v>
-      </c>
-      <c r="F54" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" t="s">
-        <v>131</v>
       </c>
       <c r="I54">
         <v>2.9201389</v>
@@ -6757,13 +6746,13 @@
         <v>12.96</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="18">
@@ -6771,22 +6760,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
         <v>44</v>
       </c>
       <c r="E55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" t="s">
         <v>129</v>
-      </c>
-      <c r="F55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" t="s">
-        <v>131</v>
       </c>
       <c r="I55">
         <v>2.9201389</v>
@@ -6804,13 +6793,13 @@
         <v>16.670000000000002</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="18">
@@ -6818,22 +6807,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
         <v>44</v>
       </c>
       <c r="E56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" t="s">
         <v>129</v>
-      </c>
-      <c r="F56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" t="s">
-        <v>131</v>
       </c>
       <c r="I56">
         <v>2.9201389</v>
@@ -6851,13 +6840,13 @@
         <v>14.81</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="18">
@@ -6865,22 +6854,22 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
       </c>
       <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" t="s">
         <v>129</v>
-      </c>
-      <c r="F57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" t="s">
-        <v>131</v>
       </c>
       <c r="I57">
         <v>2.9201389</v>
@@ -6898,13 +6887,13 @@
         <v>22.22</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="18">
@@ -6912,22 +6901,22 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>44</v>
       </c>
       <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" t="s">
         <v>129</v>
-      </c>
-      <c r="F58" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" t="s">
-        <v>131</v>
       </c>
       <c r="I58">
         <v>2.9201389</v>
@@ -6945,13 +6934,13 @@
         <v>37.04</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="18">
@@ -6959,22 +6948,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I59">
         <v>2.7688527999999999</v>
@@ -6992,13 +6981,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="18">
@@ -7006,22 +6995,22 @@
         <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I60">
         <v>2.7688527999999999</v>
@@ -7039,13 +7028,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q60" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="18">
@@ -7053,22 +7042,22 @@
         <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I61">
         <v>2.7688527999999999</v>
@@ -7086,13 +7075,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="18">
@@ -7100,22 +7089,22 @@
         <v>57</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I62">
         <v>2.7688527999999999</v>
@@ -7133,13 +7122,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q62" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="18">
@@ -7147,22 +7136,22 @@
         <v>57</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I63">
         <v>2.7688527999999999</v>
@@ -7180,13 +7169,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="18">
@@ -7194,22 +7183,22 @@
         <v>57</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I64">
         <v>2.7688527999999999</v>
@@ -7227,13 +7216,13 @@
         <v>1.4E-2</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q64" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="18">
@@ -7241,22 +7230,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I65">
         <v>2.7703000000000002</v>
@@ -7274,13 +7263,13 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="18">
@@ -7288,22 +7277,22 @@
         <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I66">
         <v>2.7703000000000002</v>
@@ -7321,13 +7310,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q66" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="18">
@@ -7335,22 +7324,22 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I67">
         <v>2.7703000000000002</v>
@@ -7368,13 +7357,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="18">
@@ -7382,22 +7371,22 @@
         <v>63</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I68">
         <v>2.7703000000000002</v>
@@ -7415,13 +7404,13 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q68" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="18">
@@ -7429,22 +7418,22 @@
         <v>63</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>2.7703000000000002</v>
@@ -7462,13 +7451,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="18">
@@ -7476,22 +7465,22 @@
         <v>63</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I70">
         <v>2.7703000000000002</v>
@@ -7509,13 +7498,13 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q70" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="18">
@@ -7523,22 +7512,22 @@
         <v>65</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I71">
         <v>2.7870721999999999</v>
@@ -7556,13 +7545,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="18">
@@ -7570,22 +7559,22 @@
         <v>65</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I72">
         <v>2.7870721999999999</v>
@@ -7603,13 +7592,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="18">
@@ -7617,22 +7606,22 @@
         <v>65</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I73">
         <v>2.7870721999999999</v>
@@ -7650,13 +7639,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="18">
@@ -7664,22 +7653,22 @@
         <v>65</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I74">
         <v>2.7870721999999999</v>
@@ -7697,13 +7686,13 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q74" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="18">
@@ -7711,22 +7700,22 @@
         <v>65</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I75">
         <v>2.7870721999999999</v>
@@ -7744,13 +7733,13 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7761,7 +7750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -7787,28 +7776,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>19</v>
@@ -7819,28 +7808,28 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" t="s">
         <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" t="s">
-        <v>216</v>
       </c>
       <c r="F2">
         <v>2017</v>
       </c>
       <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" t="s">
         <v>217</v>
-      </c>
-      <c r="H2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7848,28 +7837,28 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="F3">
         <v>2017</v>
       </c>
       <c r="G3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="s">
         <v>217</v>
-      </c>
-      <c r="H3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7877,28 +7866,28 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" t="s">
-        <v>226</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F4">
         <v>2017</v>
       </c>
       <c r="G4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" t="s">
         <v>217</v>
-      </c>
-      <c r="H4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7907,7 +7896,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://repository.usu.ac.id/handle/123456789/63997"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://repository.usu.ac.id/handle/123456789/63997" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7916,11 +7905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7943,25 +7932,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
